--- a/results/I3_N5_M2_T45_C200_DepLowerLeft_s2_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepLowerLeft_s2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.22240071040093</v>
+        <v>36.59143808817635</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3870000839233398</v>
+        <v>0.370999813079834</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.22240071040093</v>
+        <v>36.59143808817635</v>
       </c>
     </row>
     <row r="7">
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>30.66483080554366</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41.79960602508444</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38.8064805683086</v>
+        <v>32.99312545677584</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>31.29375422704615</v>
+        <v>31.95858503258977</v>
       </c>
     </row>
     <row r="8">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>43.65500000002834</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>37.03500000002978</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>41.29500000002127</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>39.51000000002971</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>43.87000000002826</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.2650000000103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>115.6150000000107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>116.6850000000122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>116.8750000000109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>115.9200000000164</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>190.9950000000942</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>196.2400000000936</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>181.7250000000927</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>197.2100000000943</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>196.8649999999397</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>149.8250000000612</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>149.5250000000605</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>143.8650000000556</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>149.56000000006</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>151.5449999999674</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>163.5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>159.9650000000634</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>161.2100000000692</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>162.6600000000613</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>166.7200000000632</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>163.5</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>159.9650000000911</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>161.2100000000919</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>162.6600000000854</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>166.7200000000921</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>190.9950000001409</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>196.2400000001454</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>181.7250000001314</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>197.2100000001392</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>196.8649999999085</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
